--- a/html/Fysioterapisystemer_excel.XLSX
+++ b/html/Fysioterapisystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50520FC4-8B25-4EFF-8578-56A9FAE6CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D82249-DD77-4C53-9C4F-BE6570C4B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Fysioterapisystemer">'Opdateret d. 12-05-2025'!$A$1:$L$30</definedName>
+    <definedName name="Fysioterapisystemer">'Opdateret d. 16-05-2025'!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Fysioterapisystemer_excel.XLSX
+++ b/html/Fysioterapisystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245EC368-FB37-4DD3-8AA9-675D70F23428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B2E13-A312-4447-9814-101F301BA138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Fysioterapisystemer_excel.XLSX
+++ b/html/Fysioterapisystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B2E13-A312-4447-9814-101F301BA138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937D9B76-FCFC-4ED6-B413-16193B68B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Fysioterapisystemer">'Opdateret d. 02-12-2025'!$A$1:$M$30</definedName>
+    <definedName name="Fysioterapisystemer">'Opdateret d. 05-12-2025'!$A$1:$M$30</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -547,9 +547,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -799,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -854,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -877,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -959,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>

--- a/html/Fysioterapisystemer_excel.XLSX
+++ b/html/Fysioterapisystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937D9B76-FCFC-4ED6-B413-16193B68B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445764C4-087C-4F61-9C5A-ACD385AE3C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Fysioterapisystemer">'Opdateret d. 05-12-2025'!$A$1:$M$30</definedName>
+    <definedName name="Fysioterapisystemer">'Opdateret d. 19-12-2025'!$A$1:$M$30</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -547,9 +547,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -799,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -854,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -877,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -959,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
